--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2486.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2486.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.306808605138787</v>
+        <v>1.549410343170166</v>
       </c>
       <c r="B1">
-        <v>3.581748295719937</v>
+        <v>1.421885132789612</v>
       </c>
       <c r="C1">
-        <v>4.480928180249536</v>
+        <v>4.634285449981689</v>
       </c>
       <c r="D1">
-        <v>3.414091937671635</v>
+        <v>1.930008769035339</v>
       </c>
       <c r="E1">
-        <v>1.912154067981776</v>
+        <v>0.6884947419166565</v>
       </c>
     </row>
   </sheetData>
